--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0493876-C4EE-4ADD-AA39-565BB20738D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A7381B96-B3B5-4D10-A5CA-770731712121}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Job Post Description</t>
+  </si>
   <si>
     <t>Min Experience (Years)</t>
   </si>
@@ -44,18 +25,35 @@
     <t>Max Experience (Years)</t>
   </si>
   <si>
-    <t>Job Post Description</t>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,26 +74,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -110,44 +118,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,32 +182,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -226,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,188 +227,206 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FDC80-3F37-42A8-A7D7-AA1384747149}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,51 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81828F8E-81AB-4071-BF0F-1A1BC2EDF81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A7381B96-B3B5-4D10-A5CA-770731712121}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Testing Data</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,26 +65,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -100,44 +109,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -164,32 +173,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -216,24 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,179 +218,200 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561FDC80-3F37-42A8-A7D7-AA1384747149}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -26,6 +26,17 @@
   </si>
   <si>
     <t>Testing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Develop and simulate ADAS sensors models (camera, radar, lidar, ultrasonic) with in virtual environments.
+• Create and implement test scenarios to validate ADAS features (e.g., AEB, ACC, LKA) Tools like IPG CarMaker.
+• Work closely with vehicle dynamics to ensure accurate integration of dynamics into simulation platforms.
+• Analyze Sensors data and simulation outputs to evaluate features performance and support development.
+• Implement Python programming as required.
+• Participate in Agile development cycles including sprint planning, reviews, and retrospectives
+• Collaborate effectively with team members and stakeholders, maintaining clear and proactive communication
+• Maintain and write clean, scalable, and well-documented code.
+</t>
   </si>
 </sst>
 </file>
@@ -383,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,6 +422,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Job_Description</t>
   </si>
@@ -37,6 +37,9 @@
 • Collaborate effectively with team members and stakeholders, maintaining clear and proactive communication
 • Maintain and write clean, scalable, and well-documented code.
 </t>
+  </si>
+  <si>
+    <t>dgsdgdsvgdsgfd</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,6 +436,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F31AA-2AE3-48D8-8D59-C0251561898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Please find the Job Description (JD) below for your reference.
+Job Role: ML Engineer/Data Scientist
+Job Description:
+• Develop, train, test, and deploy machine learning models across various fields including computer vision, LLMs, and with tabular and time series data.
+• Strong experience in Python, FastAPI, Flask
+• Strong experience in SQL
+• Strong experience Design Pattern/algorithms and data structures
+• Familiarity with OOPS, Design Pattern/algorithms and data structures
+• Familiarity with continuous integration, deployment, and automated build processes for scalable application delivery using Docker/Kubernetes
+• Practical knowledge of one or more major cloud platforms (e.g. Azure, AWS, or GCP).
+• Excellent written and verbal communication skills in English.
+• Experiment with novel deep learning-based technologies such as self-supervised learning and generative AI. 
+• Work directly with customer data and set up data pipelines to collect, curate, transform, and version data. 
+• Participate in the collection, analysis, interpretation, and output of large amounts of data using advanced AI techniques like deep learning, NLP, and computer vision good foundational experience in PyTorch / Tensorflow.
+• Work within the global corporate Artificial Intelligence division, which addresses real business challenges and opportunities across multiple countries.
+• Collaborate across different business and corporate functions in an international team composed of Project Managers, Data Scientists, Data and Software Engineers within the Artificial Intelligence team and others in the Global AI team
+ Qualifications:
+• Bachelor’s degree or master’s degree in data science, Computational Statistics/Mathematics, Computer Science, or related field
+• Fluent English</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +83,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +400,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -44,6 +44,36 @@
  Qualifications:
 • Bachelor’s degree or master’s degree in data science, Computational Statistics/Mathematics, Computer Science, or related field
 • Fluent English</t>
+  </si>
+  <si>
+    <t>Please find the Job Description (JD) below for your reference.
+Job Role: Landing Gear System Engineer
+Job Description:
+• Been able to analyse landing gear systems, ensuring they meet performance, safety, and regulatory requirements.
+•Collaborate with interdisciplinary teams to seamlessly integrate landing gear mechanisms into the overall aircraft design.
+•Design of hydraulic or electric actuation systems for smooth and reliable landing gear extension and retraction.
+•Ensure landing gear systems adhere to aviation safety standards and regulations, conducting thorough risk assessments.
+•Conduct rigorous testing protocols to validate the functionality and reliability of landing gear systems under various conditions.
+•Continuously strive to optimize landing gear performance in terms of weight, efficiency, and overall functionality.
+•Troubleshoot and address any issues related to landing gear operation, collaborating with other engineering disciplines as needed.
+•Maintain comprehensive documentation of design specifications, test results, and compliance records.
+•Work closely with aerodynamics, structural, and systems engineers to ensure a holistic approach to aircraft design and performance.
+•Participate in the development and testing of models to validate design concepts and identify areas for improvement.
+•Effectively communicate design concepts, progress, and challenges to team members, project managers, and other stakeholders.
+Qualifications/Required Skills:
+• Bachelor’s or Master's degree in Mechanical Engineering or any other relavent field
+• 7 yr - 15 years of professional experience in Aircraft Landing Gear systems.
+• Basic awareness of Aircraft System Qualification &amp; Certification.
+•Process optimisation and organisational skills.
+•Planning &amp; reporting experience.
+•Project management experience is desired but not necessary.
+•Creating &amp; analysing test cases from lab and flight test.
+•Ability to support delivery of large complex projects on time.
+•Experience in writing technical specifications both at equipment &amp; systems level.
+•Systems engineering experience; particularly involving Requirements Management (DOORS), Integration, Verification &amp; Validation.
+•Aerospace (Landing Gear Systems) environment background.
+•Proficiency in Hydraulic &amp; Electromechanical systems for landing gear deployment. 
+•Experience in the use of one or more of the following would be advantageous: Catia V5, MSC ADAMS, MATLAB, Simulink or IBM DOORS.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +459,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,6 +470,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,6 +481,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,6 +492,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Job_Description</t>
   </si>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Job_Description</t>
   </si>
@@ -74,6 +74,9 @@
 •Aerospace (Landing Gear Systems) environment background.
 •Proficiency in Hydraulic &amp; Electromechanical systems for landing gear deployment. 
 •Experience in the use of one or more of the following would be advantageous: Catia V5, MSC ADAMS, MATLAB, Simulink or IBM DOORS.</t>
+  </si>
+  <si>
+    <t>dfdsfsdf</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +517,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999796A-AAB6-4E82-BE36-A6F739EFF8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Jd_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>ML Engineer/Data Scientist</t>
+  </si>
+  <si>
+    <t>Please find the Job Description (JD) below for your reference</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -91,21 +104,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +148,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,22 +391,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Job_Id</t>
   </si>
@@ -34,7 +34,31 @@
     <t>ML Engineer/Data Scientist</t>
   </si>
   <si>
+    <t>Fullstack Developer</t>
+  </si>
+  <si>
     <t>Please find the Job Description (JD) below for your reference</t>
+  </si>
+  <si>
+    <t>Please find the Job Description (JD) below for your reference.
+Job Role: ML Engineer/Data Scientist
+Job Description:
+• Develop, train, test, and deploy machine learning models across various fields including computer vision, LLMs, and with tabular and time series data.
+• Strong experience in Python, FastAPI, Flask
+• Strong experience in SQL
+• Strong experience Design Pattern/algorithms and data structures
+• Familiarity with OOPS, Design Pattern/algorithms and data structures
+• Familiarity with continuous integration, deployment, and automated build processes for scalable application delivery using Docker/Kubernetes
+• Practical knowledge of one or more major cloud platforms (e.g. Azure, AWS, or GCP).
+• Excellent written and verbal communication skills in English.
+• Experiment with novel deep learning-based technologies such as self-supervised learning and generative AI. 
+• Work directly with customer data and set up data pipelines to collect, curate, transform, and version data. 
+• Participate in the collection, analysis, interpretation, and output of large amounts of data using advanced AI techniques like deep learning, NLP, and computer vision good foundational experience in PyTorch / Tensorflow.
+• Work within the global corporate Artificial Intelligence division, which addresses real business challenges and opportunities across multiple countries.
+• Collaborate across different business and corporate functions in an international team composed of Project Managers, Data Scientists, Data and Software Engineers within the Artificial Intelligence team and others in the Global AI team
+ Qualifications:
+• Bachelor’s degree or master’s degree in data science, Computational Statistics/Mathematics, Computer Science, or related field
+• Fluent English</t>
   </si>
 </sst>
 </file>
@@ -392,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +447,30 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Job_Id</t>
   </si>
@@ -59,6 +59,9 @@
  Qualifications:
 • Bachelor’s degree or master’s degree in data science, Computational Statistics/Mathematics, Computer Science, or related field
 • Fluent English</t>
+  </si>
+  <si>
+    <t>jghvfh</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +476,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Job_Id</t>
   </si>
@@ -31,10 +31,22 @@
     <t>Total_Years_Max_Exp</t>
   </si>
   <si>
+    <t>Linked_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
     <t>ML Engineer/Data Scientist</t>
   </si>
   <si>
     <t>Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Demo Demo</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -62,6 +74,9 @@
   </si>
   <si>
     <t>jghvfh</t>
+  </si>
+  <si>
+    <t>DemoDemo</t>
   </si>
 </sst>
 </file>
@@ -419,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,16 +456,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -459,15 +483,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -476,21 +500,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Demo Demo</t>
+  </si>
+  <si>
+    <t>Dotnet Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>DemoDemo</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -508,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -525,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -540,6 +546,32 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Job_Id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Dotnet Developer</t>
+  </si>
+  <si>
+    <t>Dotnet1 Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -497,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -514,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -531,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -557,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -572,6 +578,32 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Dotnet1 Developer</t>
+  </si>
+  <si>
+    <t>ww</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -503,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -520,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -537,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -563,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -589,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -604,6 +607,32 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>ww</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -633,6 +633,32 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>QA Analyst</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>Testing1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -506,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -523,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -540,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -566,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -659,6 +665,32 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Job_Id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>QA Analyst</t>
+  </si>
+  <si>
+    <t>React Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>Testing1</t>
+  </si>
+  <si>
+    <t>dgfsegse</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -512,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -529,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -546,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -572,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -676,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -691,6 +697,32 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Job_Id</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>dgfsegse</t>
+  </si>
+  <si>
+    <t>fafwasf</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,6 +729,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Job_Id</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>React Developer</t>
+  </si>
+  <si>
+    <t>Monstack Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>fafwasf</t>
+  </si>
+  <si>
+    <t>Demoo</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -521,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -538,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -555,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -581,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -685,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -711,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -737,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -752,6 +758,32 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Job_Id</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Monstack Developer</t>
+  </si>
+  <si>
+    <t>Nest JS Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>Demoo</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -527,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -544,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -561,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -587,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -691,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -717,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -743,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -769,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -784,6 +790,32 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Job_Id</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Nest JS Developer</t>
+  </si>
+  <si>
+    <t>AI Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>sfef</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -533,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -550,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -593,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -697,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -749,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -775,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -816,6 +822,32 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Job_Id</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>AI Developer</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>sfef</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -539,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -556,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -573,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -599,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -703,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -729,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -755,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -781,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -807,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -833,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -848,6 +854,32 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Job_Id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Cyber Security Engineer</t>
+  </si>
+  <si>
+    <t>stack Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>gggggghfdgf</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -545,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -562,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -579,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -605,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -709,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -735,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -761,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -787,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -839,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -880,6 +886,32 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Job_Id</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>stack Developer</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>gggggghfdgf</t>
+  </si>
+  <si>
+    <t>dfdsfsfdsfsd</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -551,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -568,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -585,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -611,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -715,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -741,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -767,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -793,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -819,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -845,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -897,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -912,6 +918,32 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Job_Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Resume_downloaded</t>
   </si>
   <si>
+    <t>JD_018</t>
+  </si>
+  <si>
     <t>ML Engineer/Data Scientist</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Dummy</t>
   </si>
   <si>
     <t>Please find the Job Description (JD) below for your reference</t>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t>dfdsfsfdsfsd</t>
+  </si>
+  <si>
+    <t>ekhwkqf eurkge</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -554,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -571,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -588,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -614,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -640,10 +649,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -666,10 +675,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -692,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -718,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -744,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -770,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -796,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -822,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -848,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -874,10 +883,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -900,10 +909,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -926,10 +935,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -944,6 +953,32 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,27 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEF100-6EC9-4502-92A4-F649925A9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Linked_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -87,21 +116,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,22 +403,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Job_Id</t>
   </si>
@@ -43,10 +43,20 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
 </sst>
 </file>
@@ -404,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +451,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -459,6 +469,32 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Job_Id</t>
   </si>
@@ -40,16 +40,25 @@
     <t>Resume_downloaded</t>
   </si>
   <si>
+    <t>Linked_Poster</t>
+  </si>
+  <si>
     <t>JD_001</t>
   </si>
   <si>
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
     <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior Dotnet Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions</t>
@@ -57,6 +66,11 @@
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
 </sst>
 </file>
@@ -414,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,16 +459,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -472,15 +489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -495,6 +512,35 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,27 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEF100-6EC9-4502-92A4-F649925A9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Linked_Poster</t>
+  </si>
+  <si>
+    <t>Linked_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -87,21 +121,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,22 +408,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Job_Id</t>
   </si>
@@ -46,12 +46,22 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Senior Fullstack Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
 </sst>
 </file>
@@ -409,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,10 +459,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -470,6 +480,35 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
     <t>Senior Fullstack Engineer</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -488,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -509,6 +515,35 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>JD_003</t>
   </si>
   <si>
+    <t>JD_004</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,10 +471,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -494,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -523,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -544,6 +550,35 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,6 +55,9 @@
     <t>JD_004</t>
   </si>
   <si>
+    <t>JD_005</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
+  </si>
+  <si>
+    <t>Dummy Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -74,6 +80,9 @@
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Dummy Data</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -500,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -529,10 +538,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -558,10 +567,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -580,6 +589,23 @@
       </c>
       <c r="I5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Job_Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>JD_005</t>
+  </si>
+  <si>
+    <t>JD_006</t>
   </si>
   <si>
     <t>Senior Engineer</t>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Dummy Data</t>
+  </si>
+  <si>
+    <t>dsfdsf</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,10 +486,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -509,10 +515,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -538,10 +544,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -567,10 +573,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -596,16 +602,33 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,27 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEF100-6EC9-4502-92A4-F649925A9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Linked_Poster</t>
+  </si>
+  <si>
+    <t>Linked_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -87,21 +121,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,22 +408,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Job_Id</t>
   </si>
@@ -46,12 +46,22 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
 </sst>
 </file>
@@ -409,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,15 +459,32 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,27 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEF100-6EC9-4502-92A4-F649925A9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -87,21 +121,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,22 +408,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Job_Id</t>
   </si>
@@ -46,7 +46,13 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Senior Dotnet Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,15 +455,32 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,15 +49,25 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
     <t>Senior Dotnet Engineer</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
 </sst>
 </file>
@@ -415,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -472,16 +482,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B705B4-53D3-458F-BCA3-4BC13D414468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +91,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +408,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Job_Id</t>
   </si>
@@ -46,12 +46,22 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Senior Dotnet Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
 </sst>
 </file>
@@ -409,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,16 +459,33 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
     <t>Senior Dotnet Engineer</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +465,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -476,16 +482,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,6 +52,9 @@
     <t>JD_003</t>
   </si>
   <si>
+    <t>JD_004</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -68,6 +74,11 @@
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
+</t>
   </si>
 </sst>
 </file>
@@ -425,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,10 +476,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -482,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -499,16 +510,33 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,6 +55,9 @@
     <t>JD_004</t>
   </si>
   <si>
+    <t>JD_005</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior AI Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -493,10 +499,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -510,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -527,16 +533,33 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Job_Id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>JD_005</t>
   </si>
   <si>
+    <t>JD_006</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Senior AI Developer</t>
+  </si>
+  <si>
+    <t>Senior IT Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -442,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,10 +488,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -499,10 +505,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -516,10 +522,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -533,10 +539,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -550,16 +556,33 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Job_Id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>JD_006</t>
   </si>
   <si>
+    <t>JD_007</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>Senior IT Engineer</t>
+  </si>
+  <si>
+    <t>Senior Devops Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,10 +494,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -505,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -522,10 +528,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -539,10 +545,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -556,10 +562,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -573,16 +579,33 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Job_Id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>JD_007</t>
   </si>
   <si>
+    <t>JD_008</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Senior Devops Developer</t>
+  </si>
+  <si>
+    <t>Senior System Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,10 +500,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -511,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -528,10 +534,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -545,10 +551,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -562,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -579,10 +585,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -596,16 +602,33 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Job_Id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>JD_008</t>
   </si>
   <si>
+    <t>JD_009</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Senior System Engineer</t>
+  </si>
+  <si>
+    <t>Senior Test Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -517,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -534,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -551,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -568,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -585,10 +591,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -602,10 +608,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -619,16 +625,33 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Job_Id</t>
   </si>
@@ -70,6 +70,9 @@
     <t>JD_009</t>
   </si>
   <si>
+    <t>JD_010</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t>Senior Test Engineer</t>
+  </si>
+  <si>
+    <t>Senior Azure Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -523,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -540,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -557,10 +563,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -574,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -591,10 +597,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -608,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -625,10 +631,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -642,16 +648,33 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Job_Id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>JD_010</t>
   </si>
   <si>
+    <t>JD_011</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>Senior Azure Engineer</t>
+  </si>
+  <si>
+    <t>Senior SW Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -529,10 +535,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,10 +552,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -563,10 +569,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -580,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -597,10 +603,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -614,10 +620,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -631,10 +637,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -648,10 +654,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -665,16 +671,33 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Job_Id</t>
   </si>
@@ -76,6 +76,9 @@
     <t>JD_011</t>
   </si>
   <si>
+    <t>JD_012</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>Senior SW Engineer</t>
+  </si>
+  <si>
+    <t>Junior Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -535,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -552,10 +558,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -569,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -586,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -603,10 +609,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -620,10 +626,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -637,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -654,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -671,10 +677,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -688,16 +694,33 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Job_Id</t>
   </si>
@@ -79,6 +79,9 @@
     <t>JD_012</t>
   </si>
   <si>
+    <t>JD_013</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>Junior Developer</t>
+  </si>
+  <si>
+    <t>Senior Python Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -541,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -558,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -575,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -592,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -609,10 +615,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -626,10 +632,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -643,10 +649,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -660,10 +666,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -677,10 +683,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -694,10 +700,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -711,16 +717,33 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Job_Id</t>
   </si>
@@ -82,6 +82,9 @@
     <t>JD_013</t>
   </si>
   <si>
+    <t>JD_014</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>Senior Python Engineer</t>
+  </si>
+  <si>
+    <t>Junior Devops Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -547,10 +553,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -564,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -581,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -598,10 +604,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -615,10 +621,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -632,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -649,10 +655,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -666,10 +672,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -683,10 +689,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -700,10 +706,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -717,10 +723,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -734,16 +740,33 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Job_Id</t>
   </si>
@@ -85,6 +85,9 @@
     <t>JD_014</t>
   </si>
   <si>
+    <t>JD_015</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Junior Devops Developer</t>
+  </si>
+  <si>
+    <t>Junior Dotnet Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -553,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -570,10 +576,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -587,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -604,10 +610,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -621,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -638,10 +644,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -655,10 +661,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -672,10 +678,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -689,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -706,10 +712,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -723,10 +729,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -740,10 +746,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -757,16 +763,33 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Job_Id</t>
   </si>
@@ -88,6 +88,9 @@
     <t>JD_015</t>
   </si>
   <si>
+    <t>JD_016</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Junior Dotnet Engineer</t>
+  </si>
+  <si>
+    <t>Junior Python Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,10 +548,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -559,10 +565,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -576,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -593,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -610,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -627,10 +633,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -644,10 +650,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -661,10 +667,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -678,10 +684,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -695,10 +701,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -712,10 +718,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -729,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -746,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -763,10 +769,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -780,16 +786,33 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Job_Id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>JD_016</t>
   </si>
   <si>
+    <t>JD_017</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>Junior Python Engineer</t>
+  </si>
+  <si>
+    <t>Junior AI Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -565,10 +571,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -582,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -599,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -616,10 +622,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -633,10 +639,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -650,10 +656,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -667,10 +673,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -684,10 +690,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -701,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -718,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -735,10 +741,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -752,10 +758,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -769,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -786,10 +792,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -803,15 +809,32 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Job_Id</t>
   </si>
@@ -94,6 +94,9 @@
     <t>JD_017</t>
   </si>
   <si>
+    <t>JD_018</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>Junior AI Developer</t>
+  </si>
+  <si>
+    <t>Senior UI Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -571,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -588,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -605,10 +611,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -622,10 +628,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -639,10 +645,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -656,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -673,10 +679,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -690,10 +696,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -707,10 +713,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -724,10 +730,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -741,10 +747,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -758,10 +764,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -775,10 +781,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -792,10 +798,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -809,10 +815,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -826,16 +832,33 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Job_Id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>JD_018</t>
   </si>
   <si>
+    <t>JD_019</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Senior UI Engineer</t>
+  </si>
+  <si>
+    <t>Senior QA Analyst</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,10 +566,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -577,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -594,10 +600,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -611,10 +617,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -628,10 +634,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -645,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -662,10 +668,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -679,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -696,10 +702,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -713,10 +719,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -730,10 +736,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -747,10 +753,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -764,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -781,10 +787,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -798,10 +804,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -815,10 +821,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -832,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -849,15 +855,32 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Job_Id</t>
   </si>
@@ -100,6 +100,9 @@
     <t>JD_019</t>
   </si>
   <si>
+    <t>JD_020</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>Senior QA Analyst</t>
+  </si>
+  <si>
+    <t>Senior System Analyst</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -526,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -583,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -600,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -617,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -634,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -651,10 +657,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -668,10 +674,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -685,10 +691,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -702,10 +708,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -719,10 +725,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -736,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -753,10 +759,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -770,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -787,10 +793,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -804,10 +810,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -821,10 +827,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -838,10 +844,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -855,10 +861,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -872,16 +878,33 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Job_Id</t>
   </si>
@@ -103,6 +103,9 @@
     <t>JD_020</t>
   </si>
   <si>
+    <t>JD_021</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>Senior System Analyst</t>
+  </si>
+  <si>
+    <t>ASpice Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,10 +578,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -589,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -606,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -623,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -640,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -657,10 +663,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -674,10 +680,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -691,10 +697,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -708,10 +714,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -725,10 +731,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -742,10 +748,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -759,10 +765,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -776,10 +782,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -793,10 +799,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -810,10 +816,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -827,10 +833,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -844,10 +850,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -861,10 +867,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -878,10 +884,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -895,16 +901,33 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Job_Id</t>
   </si>
@@ -106,6 +106,9 @@
     <t>JD_021</t>
   </si>
   <si>
+    <t>JD_022</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>ASpice Engineer</t>
+  </si>
+  <si>
+    <t>Mid Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -538,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -595,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -612,10 +618,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -629,10 +635,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -646,10 +652,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -663,10 +669,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -680,10 +686,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -697,10 +703,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -714,10 +720,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -731,10 +737,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -748,10 +754,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -765,10 +771,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -782,10 +788,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -799,10 +805,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -816,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -833,10 +839,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -850,10 +856,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -867,10 +873,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -884,10 +890,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -901,10 +907,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -918,16 +924,33 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Job_Id</t>
   </si>
@@ -109,6 +109,9 @@
     <t>JD_022</t>
   </si>
   <si>
+    <t>JD_023</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>Mid Engineer</t>
+  </si>
+  <si>
+    <t>Junior React Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -601,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -618,10 +624,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -635,10 +641,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -652,10 +658,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -669,10 +675,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -686,10 +692,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -703,10 +709,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -720,10 +726,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -737,10 +743,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -754,10 +760,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -771,10 +777,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -788,10 +794,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -805,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -822,10 +828,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -839,10 +845,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -856,10 +862,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -873,10 +879,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -890,10 +896,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -907,10 +913,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -924,10 +930,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -941,15 +947,32 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Job_Id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>JD_023</t>
   </si>
   <si>
+    <t>JD_024</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>Junior React Engineer</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -607,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -624,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -641,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -658,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -675,10 +681,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -692,10 +698,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -709,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -726,10 +732,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -743,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -760,10 +766,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -777,10 +783,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -794,10 +800,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -811,10 +817,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -828,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -845,10 +851,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -862,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -879,10 +885,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -896,10 +902,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -913,10 +919,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -930,10 +936,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -947,10 +953,10 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -964,16 +970,33 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Job_Id</t>
   </si>
@@ -112,6 +112,9 @@
     <t>JD_023</t>
   </si>
   <si>
+    <t>JD_024</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>Junior React Engineer</t>
+  </si>
+  <si>
+    <t>Mid Fullstack Developer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -607,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -624,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -641,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -658,10 +664,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -675,10 +681,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -692,10 +698,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -709,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -726,10 +732,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -743,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -760,10 +766,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -777,10 +783,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -794,10 +800,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -811,10 +817,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -828,10 +834,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -845,10 +851,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -862,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -879,10 +885,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -896,10 +902,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -913,10 +919,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -930,10 +936,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -947,10 +953,10 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -964,16 +970,33 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>Job_Id</t>
   </si>
@@ -115,6 +115,9 @@
     <t>JD_024</t>
   </si>
   <si>
+    <t>JD_025</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>Mid Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Senior Associate Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -199,6 +205,9 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -613,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -630,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -647,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -664,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -681,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -698,10 +707,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -715,10 +724,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -732,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -749,10 +758,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -766,10 +775,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -783,10 +792,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -800,10 +809,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -817,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -834,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -851,10 +860,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -868,10 +877,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -885,10 +894,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -902,10 +911,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -919,10 +928,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -936,10 +945,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -953,10 +962,10 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -970,10 +979,10 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -987,16 +996,33 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,69 +55,6 @@
     <t>JD_004</t>
   </si>
   <si>
-    <t>JD_005</t>
-  </si>
-  <si>
-    <t>JD_006</t>
-  </si>
-  <si>
-    <t>JD_007</t>
-  </si>
-  <si>
-    <t>JD_008</t>
-  </si>
-  <si>
-    <t>JD_009</t>
-  </si>
-  <si>
-    <t>JD_010</t>
-  </si>
-  <si>
-    <t>JD_011</t>
-  </si>
-  <si>
-    <t>JD_012</t>
-  </si>
-  <si>
-    <t>JD_013</t>
-  </si>
-  <si>
-    <t>JD_014</t>
-  </si>
-  <si>
-    <t>JD_015</t>
-  </si>
-  <si>
-    <t>JD_016</t>
-  </si>
-  <si>
-    <t>JD_017</t>
-  </si>
-  <si>
-    <t>JD_018</t>
-  </si>
-  <si>
-    <t>JD_019</t>
-  </si>
-  <si>
-    <t>JD_020</t>
-  </si>
-  <si>
-    <t>JD_021</t>
-  </si>
-  <si>
-    <t>JD_022</t>
-  </si>
-  <si>
-    <t>JD_023</t>
-  </si>
-  <si>
-    <t>JD_024</t>
-  </si>
-  <si>
-    <t>JD_025</t>
-  </si>
-  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -128,69 +65,6 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
-  </si>
-  <si>
-    <t>Senior AI Developer</t>
-  </si>
-  <si>
-    <t>Senior IT Engineer</t>
-  </si>
-  <si>
-    <t>Senior Devops Developer</t>
-  </si>
-  <si>
-    <t>Senior System Engineer</t>
-  </si>
-  <si>
-    <t>Senior Test Engineer</t>
-  </si>
-  <si>
-    <t>Senior Azure Engineer</t>
-  </si>
-  <si>
-    <t>Senior SW Engineer</t>
-  </si>
-  <si>
-    <t>Junior Developer</t>
-  </si>
-  <si>
-    <t>Senior Python Engineer</t>
-  </si>
-  <si>
-    <t>Junior Devops Developer</t>
-  </si>
-  <si>
-    <t>Junior Dotnet Engineer</t>
-  </si>
-  <si>
-    <t>Junior Python Engineer</t>
-  </si>
-  <si>
-    <t>Junior AI Developer</t>
-  </si>
-  <si>
-    <t>Senior UI Engineer</t>
-  </si>
-  <si>
-    <t>Senior QA Analyst</t>
-  </si>
-  <si>
-    <t>Senior System Analyst</t>
-  </si>
-  <si>
-    <t>ASpice Engineer</t>
-  </si>
-  <si>
-    <t>Mid Engineer</t>
-  </si>
-  <si>
-    <t>Junior React Engineer</t>
-  </si>
-  <si>
-    <t>Mid Fullstack Developer</t>
-  </si>
-  <si>
-    <t>Senior Associate Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -205,9 +79,6 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -565,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,10 +476,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -622,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -639,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -656,373 +527,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAFA18-AE2D-4979-B2CA-986E4DAC4BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -79,13 +85,19 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +160,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +212,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -487,8 +511,14 @@
       <c r="E2">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -505,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -522,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAFA18-AE2D-4979-B2CA-986E4DAC4BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Job_Id</t>
   </si>
@@ -61,6 +55,9 @@
     <t>JD_004</t>
   </si>
   <si>
+    <t>JD_005</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior Devops Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -85,6 +85,9 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
   <si>
     <t>Created</t>
@@ -96,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,21 +163,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -246,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -281,10 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,16 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,15 +486,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -512,21 +503,21 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -535,15 +526,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -552,21 +543,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Job_Id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>JD_005</t>
   </si>
   <si>
+    <t>JD_006</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Senior Devops Engineer</t>
+  </si>
+  <si>
+    <t>Junior Devops Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -88,6 +94,9 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
   <si>
     <t>Created</t>
@@ -451,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,10 +500,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -503,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -514,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -531,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -548,10 +557,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -565,16 +574,33 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABDA61-BBC2-4728-937C-514F552837F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,12 +61,6 @@
     <t>JD_004</t>
   </si>
   <si>
-    <t>JD_005</t>
-  </si>
-  <si>
-    <t>JD_006</t>
-  </si>
-  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
-  </si>
-  <si>
-    <t>Senior Devops Engineer</t>
-  </si>
-  <si>
-    <t>Junior Devops Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -91,12 +85,6 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
   <si>
     <t>Created</t>
@@ -108,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +160,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +212,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -250,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,9 +281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,15 +495,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -512,21 +512,21 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -534,16 +534,22 @@
       <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -551,16 +557,22 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -568,39 +580,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABDA61-BBC2-4728-937C-514F552837F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5566ED-CC65-4C89-B4BF-8833E8C0621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,12 +557,6 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -579,12 +573,6 @@
       </c>
       <c r="E5">
         <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5566ED-CC65-4C89-B4BF-8833E8C0621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321C0E3-F51A-4482-A43B-C1AEBA6C8887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,6 +517,12 @@
       <c r="G2" t="s">
         <v>21</v>
       </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -540,6 +546,12 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -557,6 +569,18 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -573,6 +597,18 @@
       </c>
       <c r="E5">
         <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sivaprasadh.AJITHA-K\Documents\JOB_PORTAL_AUTOMATION\Linkedin automation\Input file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321C0E3-F51A-4482-A43B-C1AEBA6C8887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Job_Id</t>
   </si>
@@ -61,6 +55,9 @@
     <t>JD_004</t>
   </si>
   <si>
+    <t>JD_005</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Senior RPA Developer</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -85,6 +85,9 @@
     <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
 </t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>Created</t>
@@ -96,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,21 +163,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -246,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -281,10 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,16 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,15 +486,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -512,10 +503,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -524,15 +515,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -541,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -553,15 +544,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -570,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -582,15 +573,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -599,16 +590,33 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>11</v>
       </c>
       <c r="I5">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Job_Id</t>
   </si>
@@ -58,6 +58,9 @@
     <t>JD_005</t>
   </si>
   <si>
+    <t>JD_006</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>Senior X Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -88,6 +94,19 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
     <t>Created</t>
@@ -451,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,10 +510,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -503,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -520,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -532,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -549,10 +568,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -561,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -578,10 +597,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -590,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -607,16 +626,33 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Job_Id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>JD_006</t>
   </si>
   <si>
+    <t>JD_007</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>Senior X Engineer</t>
+  </si>
+  <si>
+    <t>Senior Y Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -97,6 +103,63 @@
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
@@ -470,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -522,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -539,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -551,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -568,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -580,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -597,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -609,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -626,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -643,16 +706,33 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Job_Id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>JD_007</t>
   </si>
   <si>
+    <t>JD_008</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t>Senior Y Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Analyst </t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -585,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -602,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -614,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -631,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -643,10 +649,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -660,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -672,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -689,10 +695,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -706,10 +712,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -723,16 +729,33 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Job_Id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>JD_008</t>
   </si>
   <si>
+    <t>JD_009</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Senior Analyst </t>
+  </si>
+  <si>
+    <t>Senior Java Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -591,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -608,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -620,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -637,10 +643,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -649,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -666,10 +672,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -678,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -695,10 +701,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -712,10 +718,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -729,10 +735,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -746,16 +752,33 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Job_Id</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>JD_009</t>
+  </si>
+  <si>
+    <t>JD_010</t>
   </si>
   <si>
     <t>Senior Engineer</t>
@@ -182,6 +185,9 @@
 Join Akkodis and be part of a tech-driven, collaborative environment.We are seeking a Software Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
   <si>
     <t>Created</t>
@@ -545,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -597,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -614,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -626,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -643,10 +649,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -655,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -672,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -684,10 +690,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -701,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -718,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -735,10 +741,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -752,10 +758,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -769,16 +775,33 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Job_Id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>JD_010</t>
   </si>
   <si>
+    <t>JD_011</t>
+  </si>
+  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>Senior Java Engineer</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -603,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -620,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -632,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -649,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -661,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>44</v>
@@ -678,10 +684,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -690,10 +696,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -707,10 +713,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -724,10 +730,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -741,10 +747,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -758,10 +764,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -775,10 +781,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -792,15 +798,32 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
     </row>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Job_Id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>JD_001</t>
+  </si>
+  <si>
+    <t>JD_002</t>
   </si>
   <si>
     <t>Cyber Security Engineer</t>
@@ -408,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,16 +451,33 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>JD_002</t>
+  </si>
+  <si>
+    <t>JD_003</t>
   </si>
   <si>
     <t>Cyber Security Engineer</t>
@@ -54,6 +57,9 @@
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,10 +457,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -468,16 +474,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Documents\LinkedIn_Automation\Jobpost_input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5AE2B-CCC9-4A31-9E47-32C0729418BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Job_Id</t>
   </si>
@@ -51,13 +57,16 @@
   <si>
     <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +129,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,14 +426,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -458,6 +479,9 @@
       </c>
       <c r="E2">
         <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Documents\LinkedIn_Automation\Jobpost_input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5AE2B-CCC9-4A31-9E47-32C0729418BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,11 +46,20 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
   </si>
   <si>
     <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>sjdbsh</t>
   </si>
   <si>
     <t>Created</t>
@@ -65,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +132,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,16 +419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,15 +455,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -481,7 +472,24 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>RPA Developer</t>
   </si>
   <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
@@ -60,6 +66,11 @@
   </si>
   <si>
     <t>sjdbsh</t>
+  </si>
+  <si>
+    <t>We are seeking a Cyber Security Engineer  to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
     <t>Created</t>
@@ -420,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +471,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -472,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -480,16 +491,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +407,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
+  </si>
+  <si>
+    <t>We are seeking a Cyber Security Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +121,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +408,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior Dotnet Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A senior .NET developer is responsible for designing, developing, and maintaining high-quality, scalable applications on the .NET framework, from conception to deployment. Key duties include collaborating with cross-functional teams, writing efficient code, mentoring junior developers, and ensuring high performance and security. This role involves a mix of technical leadership and hands-on development, requiring proficiency in core .NET technologies, architecture, databases, and agile methodologies. </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +119,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +406,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Documents\LinkedIn_Automation\Jobpost_input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B6A01-5465-4988-9F15-61F423FD5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Job_Id</t>
   </si>
@@ -50,13 +56,19 @@
   </si>
   <si>
     <t xml:space="preserve">A senior .NET developer is responsible for designing, developing, and maintaining high-quality, scalable applications on the .NET framework, from conception to deployment. Key duties include collaborating with cross-functional teams, writing efficient code, mentoring junior developers, and ensuring high performance and security. This role involves a mix of technical leadership and hands-on development, requiring proficiency in core .NET technologies, architecture, databases, and agile methodologies. </t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,13 +131,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +252,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,14 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -457,6 +479,12 @@
       </c>
       <c r="E2">
         <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Documents\LinkedIn_Automation\Jobpost_input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B6A01-5465-4988-9F15-61F423FD5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,10 +46,21 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Senior Dotnet Engineer</t>
   </si>
   <si>
+    <t>Senior Devops Engineer</t>
+  </si>
+  <si>
     <t xml:space="preserve">A senior .NET developer is responsible for designing, developing, and maintaining high-quality, scalable applications on the .NET framework, from conception to deployment. Key duties include collaborating with cross-functional teams, writing efficient code, mentoring junior developers, and ensuring high performance and security. This role involves a mix of technical leadership and hands-on development, requiring proficiency in core .NET technologies, architecture, databases, and agile methodologies. </t>
+  </si>
+  <si>
+    <t>We are seeking a Senior Devops Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
     <t>Created</t>
@@ -67,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +136,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,7 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,14 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,15 +459,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -481,10 +476,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Senior QA Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Senior QA Analyst job description involves creating, executing, and maintaining test plans and cases to ensure software quality, collaborating with cross-functional teams to resolve issues, mentoring junior analysts, and improving overall quality processes. Key responsibilities include designing test strategies, automating tests, reporting bugs, performing root cause analysis, and ensuring quality throughout the development lifecycle. </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +119,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +406,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,31 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087887B-2192-4CE2-85F6-9C3462587D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>QA Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A QA Analyst job description involves creating, executing, and maintaining test plans and cases to ensure software quality, collaborating with cross-functional teams to resolve issues, mentoring junior analysts, and improving overall quality processes. Key responsibilities include designing test strategies, automating tests, reporting bugs, performing root cause analysis, and ensuring quality throughout the development lifecycle. </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,21 +119,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -174,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -209,10 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,25 +406,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tobumo-my.sharepoint.com/personal/milan-prava_mohanty_akkodis_com/Documents/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74554AB-B915-42BD-8156-766EF216FC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,12 +46,21 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Cyber Security Engineer</t>
+  </si>
+  <si>
+    <t>Hello Dev</t>
   </si>
   <si>
     <t>We are seeking a Cyber Security Engineer to build and maintain high-quality software solutions.
 Work with global teams to drive innovation and deliver scalable applications.
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
+    <t>fsdf dsfds</t>
   </si>
   <si>
     <t>Created</t>
@@ -69,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +136,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -219,7 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -254,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,16 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,15 +459,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -485,10 +476,27 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,10 +49,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>Hello Dev</t>
+  </si>
+  <si>
+    <t>Senior Engineer</t>
   </si>
   <si>
     <t>We are seeking a Cyber Security Engineer to build and maintain high-quality software solutions.
@@ -61,6 +67,9 @@
   </si>
   <si>
     <t>fsdf dsfds</t>
+  </si>
+  <si>
+    <t>ewfer ewrwerfew</t>
   </si>
   <si>
     <t>Created</t>
@@ -424,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -476,10 +485,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -487,16 +496,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Bengaluru, Karnataka, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +101,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +418,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,16 +52,30 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
+    <t>Senior Engineer</t>
+  </si>
+  <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
   </si>
   <si>
+    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
+Work with global teams to drive innovation and deliver scalable applications.
+Join Akkodis and be part of a tech-driven, collaborative environment.</t>
+  </si>
+  <si>
     <t>Remote</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Pune, Maharashtra, India</t>
   </si>
 </sst>
 </file>
@@ -419,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -477,10 +491,33 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,10 +55,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Senior RPA Engineer</t>
   </si>
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
@@ -69,13 +75,23 @@
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
+    <t>We are seeking a Senior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
     <t>Remote</t>
   </si>
   <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
     <t>Bengaluru, Karnataka, India</t>
   </si>
   <si>
     <t>Pune, Maharashtra, India</t>
+  </si>
+  <si>
+    <t>Hyderabad, Telangana, India</t>
   </si>
 </sst>
 </file>
@@ -433,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,10 +495,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -502,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -514,10 +530,33 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,16 +55,10 @@
     <t>JD_002</t>
   </si>
   <si>
-    <t>JD_003</t>
-  </si>
-  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>Senior Engineer</t>
-  </si>
-  <si>
-    <t>Senior RPA Engineer</t>
   </si>
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
@@ -75,23 +69,13 @@
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
-    <t>We are seeking a Senior RPA Developer to design, develop, and support automation solutions.
-Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
-  </si>
-  <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>Bengaluru, Karnataka, India</t>
   </si>
   <si>
     <t>Pune, Maharashtra, India</t>
-  </si>
-  <si>
-    <t>Hyderabad, Telangana, India</t>
   </si>
 </sst>
 </file>
@@ -449,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -507,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,10 +502,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -530,33 +514,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Job_Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>JD_002</t>
+  </si>
+  <si>
+    <t>JD_003</t>
   </si>
   <si>
     <t>Junior RPA Developer</t>
@@ -70,6 +73,9 @@
   </si>
   <si>
     <t>Remote</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
@@ -433,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,10 +485,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -502,10 +508,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -514,10 +520,33 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>JD_002</t>
-  </si>
-  <si>
-    <t>JD_003</t>
   </si>
   <si>
     <t>Junior RPA Developer</t>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>Remote</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -497,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -508,10 +502,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -520,33 +514,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,10 +55,16 @@
     <t>JD_002</t>
   </si>
   <si>
+    <t>JD_003</t>
+  </si>
+  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>Senior Engineer</t>
+  </si>
+  <si>
+    <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
@@ -69,7 +75,13 @@
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
+    <t>efesafef</t>
+  </si>
+  <si>
     <t>Remote</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
@@ -433,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,10 +491,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -502,10 +514,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -514,10 +526,33 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -55,16 +55,10 @@
     <t>JD_002</t>
   </si>
   <si>
-    <t>JD_003</t>
-  </si>
-  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
     <t>Senior Engineer</t>
-  </si>
-  <si>
-    <t>Cyber Security Engineer</t>
   </si>
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
@@ -75,13 +69,7 @@
 Join Akkodis and be part of a tech-driven, collaborative environment.</t>
   </si>
   <si>
-    <t>efesafef</t>
-  </si>
-  <si>
     <t>Remote</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
@@ -445,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -503,10 +491,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -514,10 +502,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -526,33 +514,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,30 +52,16 @@
     <t>JD_001</t>
   </si>
   <si>
-    <t>JD_002</t>
-  </si>
-  <si>
     <t>Junior RPA Developer</t>
   </si>
   <si>
-    <t>Senior Engineer</t>
-  </si>
-  <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
   </si>
   <si>
-    <t>We are seeking a Software Engineer to build and maintain high-quality software solutions.
-Work with global teams to drive innovation and deliver scalable applications.
-Join Akkodis and be part of a tech-driven, collaborative environment.</t>
-  </si>
-  <si>
     <t>Remote</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
-  </si>
-  <si>
-    <t>Pune, Maharashtra, India</t>
   </si>
 </sst>
 </file>
@@ -433,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,10 +465,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,33 +477,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,21 +47,6 @@
   </si>
   <si>
     <t>Resume_downloaded</t>
-  </si>
-  <si>
-    <t>JD_001</t>
-  </si>
-  <si>
-    <t>Junior RPA Developer</t>
-  </si>
-  <si>
-    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>Bengaluru, Karnataka, India</t>
   </si>
 </sst>
 </file>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,29 +445,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Hyderabad, Telangana, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +102,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +419,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Job_Id</t>
   </si>
@@ -52,17 +52,30 @@
     <t>JD_001</t>
   </si>
   <si>
+    <t>JD_002</t>
+  </si>
+  <si>
     <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>Senior RPA Developer</t>
   </si>
   <si>
     <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
 Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
   <si>
+    <t>We are seeking a Senior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
     <t>Remote</t>
   </si>
   <si>
     <t>Hyderabad, Telangana, India</t>
+  </si>
+  <si>
+    <t>Bengaluru, Karnataka, India</t>
   </si>
 </sst>
 </file>
@@ -420,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,10 +479,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -478,10 +491,33 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Job_Id</t>
   </si>
@@ -49,20 +49,10 @@
     <t>Resume_downloaded</t>
   </si>
   <si>
-    <t>JD_001</t>
-  </si>
-  <si>
     <t>JD_002</t>
   </si>
   <si>
-    <t>Junior RPA Developer</t>
-  </si>
-  <si>
     <t>Senior RPA Developer</t>
-  </si>
-  <si>
-    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
-Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
   </si>
   <si>
     <t>We are seeking a Senior RPA Developer to design, develop, and support automation solutions.
@@ -70,9 +60,6 @@
   </si>
   <si>
     <t>Remote</t>
-  </si>
-  <si>
-    <t>Hyderabad, Telangana, India</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka, India</t>
@@ -433,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,10 +466,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -491,33 +478,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,22 +47,6 @@
   </si>
   <si>
     <t>Resume_downloaded</t>
-  </si>
-  <si>
-    <t>JD_002</t>
-  </si>
-  <si>
-    <t>Senior RPA Developer</t>
-  </si>
-  <si>
-    <t>We are seeking a Senior RPA Developer to design, develop, and support automation solutions.
-Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>Bengaluru, Karnataka, India</t>
   </si>
 </sst>
 </file>
@@ -420,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,29 +445,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Bengaluru, Karnataka, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +102,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +419,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment
+ </t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Pune, Maharashtra, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +103,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +420,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Pune, Maharashtra, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +102,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +419,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -1,32 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milan-Prava.MOHANTY\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741F8F9-F56F-4FD1-B368-1431762E9720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Job_Id</t>
+  </si>
+  <si>
+    <t>Job_Title</t>
+  </si>
+  <si>
+    <t>Job_Description</t>
+  </si>
+  <si>
+    <t>Total_Years_Min_Exp</t>
+  </si>
+  <si>
+    <t>Total_Years_Max_Exp</t>
+  </si>
+  <si>
+    <t>Work_Mode</t>
+  </si>
+  <si>
+    <t>Job_Location</t>
+  </si>
+  <si>
+    <t>LinkedIn_Poster</t>
+  </si>
+  <si>
+    <t>LinkedIn_Posted</t>
+  </si>
+  <si>
+    <t>Resume_received</t>
+  </si>
+  <si>
+    <t>Resume_downloaded</t>
+  </si>
+  <si>
+    <t>JD_001</t>
+  </si>
+  <si>
+    <t>Junior RPA Developer</t>
+  </si>
+  <si>
+    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
+Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Bengaluru, Karnataka, India</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -42,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,33 +102,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -148,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,10 +244,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,15 +419,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,22 +47,6 @@
   </si>
   <si>
     <t>Resume_downloaded</t>
-  </si>
-  <si>
-    <t>JD_001</t>
-  </si>
-  <si>
-    <t>Junior RPA Developer</t>
-  </si>
-  <si>
-    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
-Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>Bengaluru, Karnataka, India</t>
   </si>
 </sst>
 </file>
@@ -420,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,29 +445,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LinkedIn_job_posting.xlsx
+++ b/LinkedIn_job_posting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Job_Id</t>
   </si>
@@ -47,22 +47,6 @@
   </si>
   <si>
     <t>Resume_downloaded</t>
-  </si>
-  <si>
-    <t>JD_001</t>
-  </si>
-  <si>
-    <t>Junior RPA Developer</t>
-  </si>
-  <si>
-    <t>We are seeking a Junior RPA Developer to design, develop, and support automation solutions.
-Collaborate with teams to streamline business processes using RPA tools like UiPath or Automation Anywhere. Join Akkodis to grow your skills in a dynamic, tech-driven environment</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Bengaluru, Karnataka, India</t>
   </si>
 </sst>
 </file>
@@ -420,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,29 +445,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
